--- a/Medium.xlsx
+++ b/Medium.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0542A4E-7217-4F02-A53B-5E19FD741C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -12,19 +13,31 @@
   <definedNames>
     <definedName name="alpha1">גיליון1!$G$2</definedName>
     <definedName name="alpha2">גיליון1!$H$2</definedName>
+    <definedName name="B_round">גיליון1!$A$22:$F$27</definedName>
     <definedName name="Capacity">גיליון1!$E$2</definedName>
     <definedName name="L">גיליון1!$B$2</definedName>
     <definedName name="n">גיליון1!$D$2</definedName>
+    <definedName name="NSiB">גיליון1!$A$29:$F$34</definedName>
     <definedName name="requests">גיליון1!$A$5:$E$19</definedName>
     <definedName name="S">גיליון1!$A$2</definedName>
     <definedName name="sigma">גיליון1!$F$2</definedName>
     <definedName name="t">גיליון1!$A$3:$F$3</definedName>
+    <definedName name="TBS">גיליון1!$A$36:$F$41</definedName>
     <definedName name="V">גיליון1!$C$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -75,7 +88,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -93,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -101,12 +114,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,11 +488,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -688,7 +790,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1</v>
       </c>
@@ -705,7 +807,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1</v>
       </c>
@@ -722,7 +824,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1</v>
       </c>
@@ -739,8 +841,368 @@
         <v>31</v>
       </c>
     </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <v>1</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
+        <v>1</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <v>1</v>
+      </c>
+      <c r="B25" s="5">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
+        <v>1</v>
+      </c>
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
+        <v>1</v>
+      </c>
+      <c r="B27" s="8">
+        <v>1</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2">
+        <v>4</v>
+      </c>
+      <c r="F29" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
+        <v>5</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5">
+        <v>2</v>
+      </c>
+      <c r="E30" s="5">
+        <v>3</v>
+      </c>
+      <c r="F30" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="4">
+        <v>4</v>
+      </c>
+      <c r="B31" s="5">
+        <v>5</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5">
+        <v>2</v>
+      </c>
+      <c r="F31" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="4">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5">
+        <v>4</v>
+      </c>
+      <c r="C32" s="5">
+        <v>5</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1</v>
+      </c>
+      <c r="F32" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="4">
+        <v>2</v>
+      </c>
+      <c r="B33" s="5">
+        <v>3</v>
+      </c>
+      <c r="C33" s="5">
+        <v>4</v>
+      </c>
+      <c r="D33" s="5">
+        <v>5</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="7">
+        <v>1</v>
+      </c>
+      <c r="B34" s="8">
+        <v>2</v>
+      </c>
+      <c r="C34" s="8">
+        <v>3</v>
+      </c>
+      <c r="D34" s="8">
+        <v>4</v>
+      </c>
+      <c r="E34" s="8">
+        <v>5</v>
+      </c>
+      <c r="F34" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>0</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2</v>
+      </c>
+      <c r="C36" s="2">
+        <v>4</v>
+      </c>
+      <c r="D36" s="2">
+        <v>6</v>
+      </c>
+      <c r="E36" s="2">
+        <v>8</v>
+      </c>
+      <c r="F36" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="4">
+        <v>10</v>
+      </c>
+      <c r="B37" s="5">
+        <v>0</v>
+      </c>
+      <c r="C37" s="5">
+        <v>2</v>
+      </c>
+      <c r="D37" s="5">
+        <v>4</v>
+      </c>
+      <c r="E37" s="5">
+        <v>6</v>
+      </c>
+      <c r="F37" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="4">
+        <v>8</v>
+      </c>
+      <c r="B38" s="5">
+        <v>10</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0</v>
+      </c>
+      <c r="D38" s="5">
+        <v>2</v>
+      </c>
+      <c r="E38" s="5">
+        <v>4</v>
+      </c>
+      <c r="F38" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="4">
+        <v>6</v>
+      </c>
+      <c r="B39" s="5">
+        <v>8</v>
+      </c>
+      <c r="C39" s="5">
+        <v>10</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0</v>
+      </c>
+      <c r="E39" s="5">
+        <v>2</v>
+      </c>
+      <c r="F39" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="4">
+        <v>4</v>
+      </c>
+      <c r="B40" s="5">
+        <v>6</v>
+      </c>
+      <c r="C40" s="5">
+        <v>8</v>
+      </c>
+      <c r="D40" s="5">
+        <v>10</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0</v>
+      </c>
+      <c r="F40" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="7">
+        <v>2</v>
+      </c>
+      <c r="B41" s="8">
+        <v>4</v>
+      </c>
+      <c r="C41" s="8">
+        <v>6</v>
+      </c>
+      <c r="D41" s="8">
+        <v>8</v>
+      </c>
+      <c r="E41" s="8">
+        <v>10</v>
+      </c>
+      <c r="F41" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A5:E19">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E19">
     <sortCondition ref="C5:C19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
